--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/28_Edirne_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/28_Edirne_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBECB03B-E20E-4F4E-B662-A4035DD02E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C415291E-4DA1-45A6-9845-B15443D48A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{E136F4EF-D5F7-49F4-B117-103D3E814000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{30CCC285-F8C7-413F-9AC6-CF6208BB81C8}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="123" r:id="rId1"/>
@@ -891,14 +891,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{BE11F2A4-B7C6-47B5-B40F-703E0991D264}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0BBD32A6-A3F3-49BC-8FF7-4C8B459754AF}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{58F1EA39-6CF5-4A9E-A84E-7473B7168B2A}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{94BF85AE-1492-436E-A2D1-14C007E99463}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{CF474394-8220-410A-BFE5-09CB803AFB6F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A75283C8-0B8E-400A-BD96-DD8EE5DCAD79}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{74D40E85-0745-4A5C-ACEA-2D6ADAB1750E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{312D34AA-B497-4C82-BC1A-D4F804B4AAB4}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B01BCA54-E2E9-4661-9CF0-13E2242E6455}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CB40F65D-24D8-447E-BC1A-BF14AEFAAF72}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{EBCEEC81-4733-44DB-B5FB-5581E3CBEAA0}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{0F4029C4-4F12-468A-AD57-E0F2470FE3E7}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{132ADC20-0C5F-4639-8856-FE668F19F2AE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4BC69FE5-564E-472C-89C3-432F7AE59F52}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{9E383F13-126C-42A9-AA5B-80011AD34EF1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B1B12D17-A3BE-4B35-8E06-65BC1CD53856}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1268,7 +1268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F75CE8-2474-438B-BB5C-B522093E4A18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDF3D1C-906F-40FE-8B6C-1E281CDB3F69}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2564,7 +2564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB59D87-FEAE-4BC7-B8B0-80E4C5D90A22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1747EC-D855-461E-BBA2-6A48CC67C887}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3813,7 +3813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F8A5E4-9E4E-4E72-BAF7-5C97C6AFB56E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25ACAF61-285F-42C9-AA95-7C16BF4FB1AC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5058,7 +5058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9CCF20-9A6F-45F5-AEEE-C59B0BF4A350}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB66FD1-F466-4285-B1AE-C71DDF5E5281}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6355,7 +6355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E871A07-1CC5-4E59-BD2C-FA46AB2730B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2FBEE1-08C1-412F-AE07-D527791A531E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7652,7 +7652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA0D04C-AC65-4F7B-9F17-C0BFB4558752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1B2FF9-1671-4F0D-BCE1-FC8164D966DE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8949,7 +8949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD2D838-EFE8-4F17-8F58-479E84B38602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EF857C-3D2D-4AC3-B427-3D24E5A4266B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10246,7 +10246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EC81F8-733D-47C7-9993-958F9DD2908E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D7E5FD-7275-4D6B-963C-E472ABB5C337}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11525,7 +11525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE1F15E-F029-4CF4-A810-3EC75D42AA85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314A8B7-54C8-4B3C-AA8A-33442DD6C311}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12804,7 +12804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6391F2-9368-4318-B2F6-47DF71C2AFE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3FBD43-2BFB-43F2-AC40-43047641DA29}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14074,7 +14074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BD61AE-4CC6-4729-ABE9-C66E706CF83F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B990BD4B-CE8C-462D-BFF0-DBFB290DB75D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
